--- a/ll.xlsx
+++ b/ll.xlsx
@@ -139,13 +139,13 @@
     <t>Gestión integral del riesgo de desastres</t>
   </si>
   <si>
-    <t>Presupuesto climático y  seguros contra riesgos hidro-meteorologicos</t>
+    <t>Presupuesto climático y  seguros contra riesgos hidro-meteorológicos</t>
   </si>
   <si>
     <t>Combate a la corrupción y rendición de cuentas</t>
   </si>
   <si>
-    <t>Construccion de capacidades para sustentabilidad urbana con perspectiva de género</t>
+    <t>Construcción de capacidades para sustentabilidad urbana con perspectiva de género</t>
   </si>
   <si>
     <t>Fortalecimiento de la gobernanza del cambio climático</t>
@@ -531,7 +531,7 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -542,7 +542,7 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -553,7 +553,7 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -564,7 +564,7 @@
         <v>27</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -575,7 +575,7 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -586,7 +586,7 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +597,7 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -608,7 +608,7 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,7 +641,7 @@
         <v>34</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -652,7 +652,7 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -663,7 +663,7 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -674,7 +674,7 @@
         <v>37</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -685,7 +685,7 @@
         <v>38</v>
       </c>
       <c r="C16">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -696,7 +696,7 @@
         <v>39</v>
       </c>
       <c r="C17">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -707,7 +707,7 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -729,7 +729,7 @@
         <v>42</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -740,7 +740,7 @@
         <v>43</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -751,7 +751,7 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
